--- a/loaded_influencer_data/karima.ugc.creator/karima.ugc.creator.xlsx
+++ b/loaded_influencer_data/karima.ugc.creator/karima.ugc.creator.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,47 +458,61 @@
           <t>following</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-03-29 10:10:49</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3913</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1712</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1705</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>karima.ugc.creator</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@karima.ugc.creator</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45745</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3913</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1712</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45745</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3913</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1712</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4007</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1743</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4007</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1743</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1743</v>
       </c>
     </row>
   </sheetData>
